--- a/Sujeto_2/Carbohidrates.xlsx
+++ b/Sujeto_2/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0FD00-FCC8-754D-B9F1-1330BF4289AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A4DA92-39DF-464A-8399-7D2B1E0920C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>74.79</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>30.06</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>49.74</t>
+  </si>
+  <si>
+    <t>25.92</t>
+  </si>
+  <si>
+    <t>24.34</t>
+  </si>
+  <si>
+    <t>41.62</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>90.92</t>
+  </si>
+  <si>
+    <t>44.08</t>
+  </si>
+  <si>
+    <t>80.45</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>58.72</t>
   </si>
 </sst>
 </file>
@@ -87,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +480,13 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -451,16 +500,16 @@
       <c r="A2" s="2">
         <v>44201.569444444453</v>
       </c>
-      <c r="B2">
-        <v>28.17</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44201.875</v>
       </c>
-      <c r="B3">
-        <v>74.789999999999992</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,80 +524,80 @@
       <c r="A5" s="2">
         <v>44202.520833333343</v>
       </c>
-      <c r="B5">
-        <v>37.395000000000003</v>
+      <c r="B5" s="3">
+        <v>37395</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44202.677083333343</v>
       </c>
-      <c r="B6">
-        <v>17.8</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44202.791666666657</v>
       </c>
-      <c r="B7">
-        <v>30.06</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44203.289583333331</v>
       </c>
-      <c r="B8">
-        <v>10.1</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44203.541666666657</v>
       </c>
-      <c r="B9">
-        <v>28.17</v>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44203.791666666657</v>
       </c>
-      <c r="B10">
-        <v>49.74</v>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44204.3125</v>
       </c>
-      <c r="B11">
-        <v>25.92</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44204.5625</v>
       </c>
-      <c r="B12">
-        <v>24.34</v>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44204.875</v>
       </c>
-      <c r="B13">
-        <v>41.62</v>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44205.541666666657</v>
       </c>
-      <c r="B14">
-        <v>40.25</v>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,24 +612,24 @@
       <c r="A16" s="2">
         <v>44206.395833333343</v>
       </c>
-      <c r="B16">
-        <v>90.92</v>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44206.541666666657</v>
       </c>
-      <c r="B17">
-        <v>44.08</v>
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44206.833333333343</v>
       </c>
-      <c r="B18">
-        <v>80.45</v>
+      <c r="B18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,24 +644,24 @@
       <c r="A20" s="2">
         <v>44207.5625</v>
       </c>
-      <c r="B20">
-        <v>44.08</v>
+      <c r="B20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44207.666666666657</v>
       </c>
-      <c r="B21">
-        <v>31.1</v>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44207.833333333343</v>
       </c>
-      <c r="B22">
-        <v>58.72</v>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_2/Carbohidrates.xlsx
+++ b/Sujeto_2/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A4DA92-39DF-464A-8399-7D2B1E0920C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDAEB8B-3BF5-9E4D-8C64-AB781550EF0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,12 @@
     <t>74.79</t>
   </si>
   <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>37.39</t>
+  </si>
+  <si>
     <t>17.8</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>40.25</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
   <si>
     <t>90.92</t>
@@ -132,13 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,9 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -516,16 +522,16 @@
       <c r="A4" s="2">
         <v>44202.305555555547</v>
       </c>
-      <c r="B4">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44202.520833333343</v>
       </c>
-      <c r="B5" s="3">
-        <v>37395</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +539,7 @@
         <v>44202.677083333343</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +547,7 @@
         <v>44202.791666666657</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,7 +555,7 @@
         <v>44203.289583333331</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +571,7 @@
         <v>44203.791666666657</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +579,7 @@
         <v>44204.3125</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +587,7 @@
         <v>44204.5625</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +595,7 @@
         <v>44204.875</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,15 +603,15 @@
         <v>44205.541666666657</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44205.791666666657</v>
       </c>
-      <c r="B15">
-        <v>60</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -613,7 +619,7 @@
         <v>44206.395833333343</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -621,7 +627,7 @@
         <v>44206.541666666657</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -629,15 +635,15 @@
         <v>44206.833333333343</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44207.277777777781</v>
       </c>
-      <c r="B19">
-        <v>60</v>
+      <c r="B19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,7 +651,7 @@
         <v>44207.5625</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,7 +659,7 @@
         <v>44207.666666666657</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +667,7 @@
         <v>44207.833333333343</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
